--- a/Proyecto/Documentacion/Priorizacion de RF.xlsx
+++ b/Proyecto/Documentacion/Priorizacion de RF.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Copia de Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Hoja 1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t>Etiqueta</t>
   </si>
@@ -257,13 +258,130 @@
   </si>
   <si>
     <t>El administrador busca alumno</t>
+  </si>
+  <si>
+    <t>CU35</t>
+  </si>
+  <si>
+    <t>El administrador contacta alumnos</t>
+  </si>
+  <si>
+    <t>Programados</t>
+  </si>
+  <si>
+    <t>Probado</t>
+  </si>
+  <si>
+    <t>Corregido</t>
+  </si>
+  <si>
+    <t>Firmado</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Consultar información de la cuenta</t>
+  </si>
+  <si>
+    <t>Modificar información de la cuenta</t>
+  </si>
+  <si>
+    <t>Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>Consultar usuarios de la organización</t>
+  </si>
+  <si>
+    <t>Registrar administrador</t>
+  </si>
+  <si>
+    <t>Eliminar administrador</t>
+  </si>
+  <si>
+    <t>Modificar permsos de administrador</t>
+  </si>
+  <si>
+    <t>Consultar grupos registrados</t>
+  </si>
+  <si>
+    <t>Modificar grupo</t>
+  </si>
+  <si>
+    <t>Eliminar grupo</t>
+  </si>
+  <si>
+    <t>Activar encuesta/ Dar de alta encuesta</t>
+  </si>
+  <si>
+    <t>Cerrar encuesta/ Dar de baja encuesta</t>
+  </si>
+  <si>
+    <t>Consultar encuestas</t>
+  </si>
+  <si>
+    <t>Registrar grupo</t>
+  </si>
+  <si>
+    <t>Registrar alumno</t>
+  </si>
+  <si>
+    <t>Registrar alumnos (varios alumnos a la vez)</t>
+  </si>
+  <si>
+    <t>Registrar generación</t>
+  </si>
+  <si>
+    <t>Consultar alumnos</t>
+  </si>
+  <si>
+    <t>Modificar información de alumno</t>
+  </si>
+  <si>
+    <t>Eliminar alumno</t>
+  </si>
+  <si>
+    <t>Buscar alumno</t>
+  </si>
+  <si>
+    <t>Filtrar consulta de alumnos</t>
+  </si>
+  <si>
+    <t>Contactar alumno</t>
+  </si>
+  <si>
+    <t>Descargar consulta</t>
+  </si>
+  <si>
+    <t>Imprimir consulta</t>
+  </si>
+  <si>
+    <t>Consultar encuesta/ Acceder a encuesta</t>
+  </si>
+  <si>
+    <t>Contestar encuesta</t>
+  </si>
+  <si>
+    <t>Probados</t>
+  </si>
+  <si>
+    <t>Corregidos</t>
+  </si>
+  <si>
+    <t>Firmados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -285,6 +403,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="10">
     <fill>
@@ -366,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -412,6 +531,30 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -420,11 +563,1095 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Programados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$G$34:$G$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Probados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$H$34:$H$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Corregidos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$I$34:$I$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Firmados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$J$34:$J$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.0"/>
+    <col customWidth="1" min="2" max="2" width="53.14"/>
+    <col customWidth="1" min="7" max="7" width="15.86"/>
+    <col customWidth="1" min="9" max="9" width="18.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="3">
+        <f t="shared" ref="G33:J33" si="1">count(G2:G32)</f>
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" s="3">
+        <f t="shared" ref="G34:J34" si="2">G33/23</f>
+        <v>0.4347826087</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1739130435</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1739130435</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35">
+        <f t="shared" ref="G35:J35" si="3">1-G34</f>
+        <v>0.5652173913</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0.8260869565</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.8260869565</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -988,6 +2215,18 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Proyecto/Documentacion/Priorizacion de RF.xlsx
+++ b/Proyecto/Documentacion/Priorizacion de RF.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Copia de Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Hoja 1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t>Etiqueta</t>
   </si>
@@ -257,13 +258,130 @@
   </si>
   <si>
     <t>El administrador busca alumno</t>
+  </si>
+  <si>
+    <t>CU35</t>
+  </si>
+  <si>
+    <t>El administrador contacta alumnos</t>
+  </si>
+  <si>
+    <t>Programados</t>
+  </si>
+  <si>
+    <t>Probado</t>
+  </si>
+  <si>
+    <t>Corregido</t>
+  </si>
+  <si>
+    <t>Firmado</t>
+  </si>
+  <si>
+    <t>Iniciar sesión</t>
+  </si>
+  <si>
+    <t>Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Recuperar contraseña</t>
+  </si>
+  <si>
+    <t>Consultar información de la cuenta</t>
+  </si>
+  <si>
+    <t>Modificar información de la cuenta</t>
+  </si>
+  <si>
+    <t>Cambiar contraseña</t>
+  </si>
+  <si>
+    <t>Consultar usuarios de la organización</t>
+  </si>
+  <si>
+    <t>Registrar administrador</t>
+  </si>
+  <si>
+    <t>Eliminar administrador</t>
+  </si>
+  <si>
+    <t>Modificar permisos de administrador</t>
+  </si>
+  <si>
+    <t>Consultar grupos registrados</t>
+  </si>
+  <si>
+    <t>Modificar grupo</t>
+  </si>
+  <si>
+    <t>Eliminar grupo</t>
+  </si>
+  <si>
+    <t>Activar encuesta/ Dar de alta encuesta</t>
+  </si>
+  <si>
+    <t>Cerrar encuesta/ Dar de baja encuesta</t>
+  </si>
+  <si>
+    <t>Consultar encuestas</t>
+  </si>
+  <si>
+    <t>Registrar grupo</t>
+  </si>
+  <si>
+    <t>Registrar alumno</t>
+  </si>
+  <si>
+    <t>Registrar alumnos (varios alumnos a la vez)</t>
+  </si>
+  <si>
+    <t>Registrar generación</t>
+  </si>
+  <si>
+    <t>Consultar alumnos</t>
+  </si>
+  <si>
+    <t>Modificar información de alumno</t>
+  </si>
+  <si>
+    <t>Eliminar alumno</t>
+  </si>
+  <si>
+    <t>Buscar en la tabla de alumnos</t>
+  </si>
+  <si>
+    <t>Filtrar la tabla de alumnos</t>
+  </si>
+  <si>
+    <t>Contactar alumno</t>
+  </si>
+  <si>
+    <t>Descargar consulta</t>
+  </si>
+  <si>
+    <t>Imprimir consulta</t>
+  </si>
+  <si>
+    <t>Consultar encuesta/ Acceder a encuesta</t>
+  </si>
+  <si>
+    <t>Contestar encuesta</t>
+  </si>
+  <si>
+    <t>Probados</t>
+  </si>
+  <si>
+    <t>Corregidos</t>
+  </si>
+  <si>
+    <t>Firmados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -285,6 +403,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="10">
     <fill>
@@ -366,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -412,6 +531,30 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -420,11 +563,1153 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Programados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$G$34:$G$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Probados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$H$34:$H$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Corregidos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$I$34:$I$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0"/>
+            </a:pPr>
+            <a:r>
+              <a:t>Firmados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DC3912"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Copia de Hoja 1'!$J$34:$J$35</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.0"/>
+    <col customWidth="1" min="2" max="2" width="53.14"/>
+    <col customWidth="1" min="7" max="7" width="15.86"/>
+    <col customWidth="1" min="9" max="9" width="18.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32">
+      <c r="G32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="3">
+        <f t="shared" ref="G33:J33" si="1">count(G2:G32)</f>
+        <v>19</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" s="3">
+        <f t="shared" ref="G34:I34" si="2">G33/30</f>
+        <v>0.6333333333</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4666666667</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4666666667</v>
+      </c>
+      <c r="J34" s="3">
+        <f>J33/23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35">
+        <f t="shared" ref="G35:J35" si="3">1-G34</f>
+        <v>0.3666666667</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0.5333333333</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>0.5333333333</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -988,6 +2273,18 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="7"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Proyecto/Documentacion/Priorizacion de RF.xlsx
+++ b/Proyecto/Documentacion/Priorizacion de RF.xlsx
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,17 +543,11 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,9 +1046,15 @@
       <c r="G2" s="18">
         <v>1.0</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1.0</v>
+      </c>
       <c r="L2" s="12"/>
       <c r="M2" s="9" t="s">
         <v>12</v>
@@ -1064,7 +1064,7 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="6"/>
@@ -1074,9 +1074,15 @@
       <c r="G3" s="18">
         <v>1.0</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1.0</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="9" t="s">
         <v>15</v>
@@ -1093,10 +1099,18 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="G4" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1.0</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="9" t="s">
         <v>18</v>
@@ -1122,7 +1136,9 @@
       <c r="I5" s="18">
         <v>1.0</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="18">
+        <v>1.0</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="9" t="s">
         <v>21</v>
@@ -1148,7 +1164,9 @@
       <c r="I6" s="18">
         <v>1.0</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="18">
+        <v>1.0</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="9" t="s">
         <v>24</v>
@@ -1168,13 +1186,15 @@
       <c r="G7" s="18">
         <v>1.0</v>
       </c>
-      <c r="H7" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="19"/>
+      <c r="H7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1.0</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="10" t="s">
         <v>27</v>
@@ -1191,10 +1211,18 @@
       <c r="D8" s="13"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="19"/>
+      <c r="G8" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
@@ -1210,9 +1238,15 @@
       <c r="G9" s="18">
         <v>1.0</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
+      <c r="H9" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
@@ -1225,10 +1259,18 @@
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="19"/>
+      <c r="G10" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
@@ -1241,10 +1283,18 @@
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="19"/>
+      <c r="G11" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
@@ -1260,9 +1310,15 @@
       <c r="G12" s="18">
         <v>1.0</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="19"/>
+      <c r="H12" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -1275,10 +1331,18 @@
       <c r="D13" s="13"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="19"/>
+      <c r="G13" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
@@ -1291,10 +1355,18 @@
       <c r="D14" s="12"/>
       <c r="E14" s="7"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="19"/>
+      <c r="G14" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
@@ -1307,10 +1379,18 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="19"/>
+      <c r="G15" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
@@ -1323,10 +1403,18 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="19"/>
+      <c r="G16" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
@@ -1348,7 +1436,9 @@
       <c r="I17" s="18">
         <v>1.0</v>
       </c>
-      <c r="J17" s="19"/>
+      <c r="J17" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
@@ -1364,13 +1454,15 @@
       <c r="G18" s="18">
         <v>1.0</v>
       </c>
-      <c r="H18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="19"/>
+      <c r="H18" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
@@ -1386,13 +1478,15 @@
       <c r="G19" s="18">
         <v>1.0</v>
       </c>
-      <c r="H19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J19" s="19"/>
+      <c r="H19" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
@@ -1405,16 +1499,24 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="G20" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="8"/>
@@ -1424,15 +1526,21 @@
       <c r="G21" s="18">
         <v>1.0</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="19"/>
+      <c r="H21" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="7"/>
@@ -1442,51 +1550,69 @@
       <c r="G22" s="18">
         <v>1.0</v>
       </c>
-      <c r="H22" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J22" s="19"/>
+      <c r="H22" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="G23" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="12"/>
       <c r="E24" s="6"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="19"/>
+      <c r="G24" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>111</v>
       </c>
       <c r="C25" s="7"/>
@@ -1496,19 +1622,21 @@
       <c r="G25" s="18">
         <v>1.0</v>
       </c>
-      <c r="H25" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J25" s="19"/>
+      <c r="H25" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C26" s="7"/>
@@ -1518,19 +1646,21 @@
       <c r="G26" s="18">
         <v>1.0</v>
       </c>
-      <c r="H26" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J26" s="19"/>
+      <c r="H26" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="7"/>
@@ -1540,19 +1670,21 @@
       <c r="G27" s="18">
         <v>1.0</v>
       </c>
-      <c r="H27" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I27" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="19"/>
+      <c r="H27" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="6"/>
@@ -1562,19 +1694,21 @@
       <c r="G28" s="18">
         <v>1.0</v>
       </c>
-      <c r="H28" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J28" s="19"/>
+      <c r="H28" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I28" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="6"/>
@@ -1584,19 +1718,21 @@
       <c r="G29" s="18">
         <v>1.0</v>
       </c>
-      <c r="H29" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J29" s="19"/>
+      <c r="H29" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="7"/>
@@ -1606,19 +1742,21 @@
       <c r="G30" s="18">
         <v>1.0</v>
       </c>
-      <c r="H30" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J30" s="19"/>
+      <c r="H30" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="7"/>
@@ -1628,13 +1766,15 @@
       <c r="G31" s="18">
         <v>1.0</v>
       </c>
-      <c r="H31" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="J31" s="19"/>
+      <c r="H31" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="G32" s="15" t="s">
@@ -1653,55 +1793,55 @@
     <row r="33">
       <c r="G33" s="3">
         <f t="shared" ref="G33:J33" si="1">count(G2:G32)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="G34" s="3">
         <f t="shared" ref="G34:I34" si="2">G33/30</f>
-        <v>0.6333333333</v>
+        <v>1</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>0.4666666667</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="2"/>
-        <v>0.4666666667</v>
+        <v>1</v>
       </c>
       <c r="J34" s="3">
         <f>J33/23</f>
-        <v>0</v>
+        <v>1.304347826</v>
       </c>
     </row>
     <row r="35">
       <c r="G35">
         <f t="shared" ref="G35:J35" si="3">1-G34</f>
-        <v>0.3666666667</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>0.5333333333</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>0.5333333333</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.3043478261</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/Documentacion/Priorizacion de RF.xlsx
+++ b/Proyecto/Documentacion/Priorizacion de RF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
     <t>Etiqueta</t>
   </si>
@@ -345,12 +345,6 @@
   </si>
   <si>
     <t>Eliminar alumno</t>
-  </si>
-  <si>
-    <t>Buscar en la tabla de alumnos</t>
-  </si>
-  <si>
-    <t>Filtrar la tabla de alumnos</t>
   </si>
   <si>
     <t>Contactar alumno</t>
@@ -611,7 +605,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Copia de Hoja 1'!$G$34:$G$35</c:f>
+              <c:f>'Copia de Hoja 1'!$G$32:$G$33</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -689,7 +683,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Copia de Hoja 1'!$H$34:$H$35</c:f>
+              <c:f>'Copia de Hoja 1'!$H$32:$H$33</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -767,7 +761,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Copia de Hoja 1'!$I$34:$I$35</c:f>
+              <c:f>'Copia de Hoja 1'!$I$32:$I$33</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -845,7 +839,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Copia de Hoja 1'!$J$34:$J$35</c:f>
+              <c:f>'Copia de Hoja 1'!$J$32:$J$33</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -875,7 +869,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -900,7 +894,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -925,7 +919,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -950,7 +944,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -1616,8 +1610,8 @@
         <v>111</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="7"/>
       <c r="G25" s="18">
         <v>1.0</v>
@@ -1639,10 +1633,10 @@
       <c r="B26" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="18">
         <v>1.0</v>
       </c>
@@ -1663,9 +1657,9 @@
       <c r="B27" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="18">
         <v>1.0</v>
@@ -1687,10 +1681,10 @@
       <c r="B28" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="18">
         <v>1.0</v>
       </c>
@@ -1711,10 +1705,10 @@
       <c r="B29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
       <c r="G29" s="18">
         <v>1.0</v>
       </c>
@@ -1729,119 +1723,71 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="G30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="H30" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="J30" s="18">
-        <v>1.0</v>
+      <c r="I30" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="H31" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="J31" s="18">
-        <v>1.0</v>
+      <c r="G31" s="3">
+        <f t="shared" ref="G31:J31" si="1">COUNT(G2:G29)</f>
+        <v>28</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
-      <c r="G32" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="G33" s="3">
-        <f t="shared" ref="G33:J33" si="1">count(G2:G32)</f>
-        <v>30</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="G34" s="3">
-        <f t="shared" ref="G34:I34" si="2">G33/30</f>
+      <c r="G32" s="3">
+        <f t="shared" ref="G32:J32" si="2">G31/28</f>
         <v>1</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I32" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J34" s="3">
-        <f>J33/23</f>
-        <v>1.304347826</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="G35">
-        <f t="shared" ref="G35:J35" si="3">1-G34</f>
+      <c r="J32" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33">
+        <f t="shared" ref="G33:J33" si="3">1-G32</f>
         <v>0</v>
       </c>
-      <c r="H35">
+      <c r="H33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="I33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="J33">
         <f t="shared" si="3"/>
-        <v>-0.3043478261</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
